--- a/medicine/Maladies infectieuses/Campylobactériose/Campylobactériose.xlsx
+++ b/medicine/Maladies infectieuses/Campylobactériose/Campylobactériose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campylobact%C3%A9riose</t>
+          <t>Campylobactériose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Campylobacter sont des bactéries de type gram négatif (mode de coloration utilisée pour mettre en évidence les différentes variétés de bactéries responsables) dont la distribution à travers la planète est importante. Il s'agit d'une bactérie apparaissant sous la forme d'une virule particulièrement mobile et pathogène pour le bétail, c'est-à-dire entraînant l'apparition de maladies et en particulier des avortements chez les espèces bovines. Cette bactérie est transmise à l'homme par voie orofécale (via le tube digestif), en particulier par le lait qui n'est pas pasteurisé, l'eau contaminée et les viandes qui ne sont pas suffisamment cuites.
-Selon l'AESA, « avec 214 779 cas, la campylobactériose reste la maladie d'origine alimentaire la plus fréquemment signalée dans l'UE. Dans les aliments, l'agent qui est à l’origine de cette maladie, Campylobacter, se trouve principalement dans la viande de poulet » [1].
+Selon l'AESA, « avec 214 779 cas, la campylobactériose reste la maladie d'origine alimentaire la plus fréquemment signalée dans l'UE. Dans les aliments, l'agent qui est à l’origine de cette maladie, Campylobacter, se trouve principalement dans la viande de poulet » .
 </t>
         </is>
       </c>
